--- a/QueriedFinanceData.xlsx
+++ b/QueriedFinanceData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Desktop\FinanceDataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{715DEB62-6D2E-4978-9C14-0856AC00537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9CD535-CAFE-4473-BA6B-61643EF0CFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{805845B5-625B-46ED-9C30-2BDA6EED8189}"/>
   </bookViews>
   <sheets>
-    <sheet name="incByIndustry" sheetId="1" r:id="rId1"/>
+    <sheet name="avgPctIncrease" sheetId="1" r:id="rId1"/>
     <sheet name="highestReturn" sheetId="2" r:id="rId2"/>
-    <sheet name="citiesIndustries" sheetId="3" r:id="rId3"/>
-    <sheet name="performersIndustry" sheetId="4" r:id="rId4"/>
+    <sheet name="industryCities" sheetId="3" r:id="rId3"/>
+    <sheet name="industryPerformers" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,9 +74,6 @@
     <t>company_name</t>
   </si>
   <si>
-    <t>percent_increase</t>
-  </si>
-  <si>
     <t>Palantir Technologies</t>
   </si>
   <si>
@@ -582,6 +579,9 @@
   </si>
   <si>
     <t>performance_vs_industry_avg</t>
+  </si>
+  <si>
+    <t>percent_change</t>
   </si>
 </sst>
 </file>
@@ -956,7 +956,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B9" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA91B388-B127-41C3-9129-8BA60680B22B}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="N162" sqref="N162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>2032.99999999999</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>1002.99999999999</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>492</v>
+        <v>4.92</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>386</v>
+        <v>3.86</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>354</v>
+        <v>3.54</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>194</v>
+        <v>1.94</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>161</v>
+        <v>1.61</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>156</v>
+        <v>1.56</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>139</v>
+        <v>1.39</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1182,10 +1182,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>1.29</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>128</v>
+        <v>1.28</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>126</v>
+        <v>1.26</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1215,10 +1215,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>122</v>
+        <v>1.22</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>119</v>
+        <v>1.19</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18">
-        <v>118</v>
+        <v>1.18</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>117</v>
+        <v>1.17</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>114.99999999999901</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>113.99999999999901</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1281,10 +1281,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>1.08</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>1.08</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>1.04</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>1.04</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>1.02</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>98</v>
+        <v>0.98</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>96</v>
+        <v>0.96</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>92</v>
+        <v>0.92</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>0.86</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>84</v>
+        <v>0.84</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -1402,10 +1402,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>76</v>
+        <v>0.76</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -1435,10 +1435,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>71</v>
+        <v>0.71</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1512,10 +1512,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1523,10 +1523,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>59</v>
+        <v>0.59</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>57.999999999999901</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>57.999999999999901</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>56.999999999999901</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>46</v>
+        <v>0.46</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>39</v>
+        <v>0.39</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -1721,10 +1721,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>28.999999999999901</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>28.999999999999901</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -1787,10 +1787,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1809,10 +1809,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -1886,10 +1886,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -1897,10 +1897,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -1952,10 +1952,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -1974,10 +1974,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -1985,10 +1985,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2062,10 +2062,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2084,10 +2084,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2095,10 +2095,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -2117,10 +2117,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
@@ -2139,10 +2139,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2205,10 +2205,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106">
-        <v>-1</v>
+        <v>-0.01</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -2216,10 +2216,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107">
-        <v>-1</v>
+        <v>-0.01</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -2227,10 +2227,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B108">
-        <v>-3</v>
+        <v>-0.03</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B109">
-        <v>-4</v>
+        <v>-0.04</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B110">
-        <v>-6</v>
+        <v>-0.06</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B111">
-        <v>-7</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
@@ -2271,10 +2271,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B112">
-        <v>-7</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B113">
-        <v>-9</v>
+        <v>-0.09</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B114">
-        <v>-9</v>
+        <v>-0.09</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B115">
-        <v>-11</v>
+        <v>-0.11</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B116">
-        <v>-12</v>
+        <v>-0.12</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
@@ -2326,10 +2326,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B117">
-        <v>-12</v>
+        <v>-0.12</v>
       </c>
       <c r="C117" t="s">
         <v>0</v>
@@ -2337,10 +2337,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B118">
-        <v>-14</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
@@ -2348,10 +2348,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B119">
-        <v>-14</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B120">
-        <v>-16</v>
+        <v>-0.16</v>
       </c>
       <c r="C120" t="s">
         <v>3</v>
@@ -2370,10 +2370,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B121">
-        <v>-16</v>
+        <v>-0.16</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -2381,10 +2381,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B122">
-        <v>-17</v>
+        <v>-0.17</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
@@ -2392,10 +2392,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B123">
-        <v>-17</v>
+        <v>-0.17</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
@@ -2403,10 +2403,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B124">
-        <v>-18</v>
+        <v>-0.18</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
@@ -2414,10 +2414,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B125">
-        <v>-21</v>
+        <v>-0.21</v>
       </c>
       <c r="C125" t="s">
         <v>0</v>
@@ -2425,10 +2425,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B126">
-        <v>-21</v>
+        <v>-0.21</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B127">
-        <v>-21</v>
+        <v>-0.21</v>
       </c>
       <c r="C127" t="s">
         <v>0</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B128">
-        <v>-22</v>
+        <v>-0.22</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
@@ -2458,10 +2458,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B129">
-        <v>-23</v>
+        <v>-0.23</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B130">
-        <v>-26</v>
+        <v>-0.26</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B131">
-        <v>-26</v>
+        <v>-0.26</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B132">
-        <v>-27</v>
+        <v>-0.27</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B133">
-        <v>-28.999999999999901</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -2513,10 +2513,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B134">
-        <v>-31</v>
+        <v>-0.31</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
@@ -2524,10 +2524,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B135">
-        <v>-31</v>
+        <v>-0.31</v>
       </c>
       <c r="C135" t="s">
         <v>0</v>
@@ -2535,10 +2535,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B136">
-        <v>-31</v>
+        <v>-0.31</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
@@ -2546,10 +2546,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B137">
-        <v>-32</v>
+        <v>-0.32</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -2557,10 +2557,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B138">
-        <v>-34</v>
+        <v>-0.34</v>
       </c>
       <c r="C138" t="s">
         <v>0</v>
@@ -2568,10 +2568,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B139">
-        <v>-34</v>
+        <v>-0.34</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B140">
-        <v>-35</v>
+        <v>-0.35</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B141">
-        <v>-36</v>
+        <v>-0.36</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B142">
-        <v>-37</v>
+        <v>-0.37</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B143">
-        <v>-37</v>
+        <v>-0.37</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B144">
-        <v>-38</v>
+        <v>-0.38</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B145">
-        <v>-38</v>
+        <v>-0.38</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
@@ -2645,10 +2645,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B146">
-        <v>-40</v>
+        <v>-0.4</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B147">
-        <v>-42</v>
+        <v>-0.42</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B148">
-        <v>-42</v>
+        <v>-0.42</v>
       </c>
       <c r="C148" t="s">
         <v>6</v>
@@ -2678,10 +2678,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B149">
-        <v>-45</v>
+        <v>-0.45</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
@@ -2689,10 +2689,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B150">
-        <v>-45</v>
+        <v>-0.45</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B151">
-        <v>-46</v>
+        <v>-0.46</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
@@ -2711,10 +2711,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B152">
-        <v>-51</v>
+        <v>-0.51</v>
       </c>
       <c r="C152" t="s">
         <v>0</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B153">
-        <v>-51</v>
+        <v>-0.51</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -2733,10 +2733,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B154">
-        <v>-53</v>
+        <v>-0.53</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B155">
-        <v>-54</v>
+        <v>-0.54</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B156">
-        <v>-57.999999999999901</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B157">
-        <v>-60</v>
+        <v>-0.6</v>
       </c>
       <c r="C157" t="s">
         <v>0</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B158">
-        <v>-63</v>
+        <v>-0.63</v>
       </c>
       <c r="C158" t="s">
         <v>0</v>
@@ -2788,10 +2788,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B159">
-        <v>-64</v>
+        <v>-0.64</v>
       </c>
       <c r="C159" t="s">
         <v>0</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B160">
-        <v>-66</v>
+        <v>-0.66</v>
       </c>
       <c r="C160" t="s">
         <v>0</v>
@@ -2810,10 +2810,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B161">
-        <v>-68</v>
+        <v>-0.68</v>
       </c>
       <c r="C161" t="s">
         <v>9</v>
@@ -2829,25 +2829,25 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2906,11 +2906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500637A9-1DDC-4807-B048-70BE073AF9B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBFE51D-8924-44BE-8A0F-58E9B15CD872}">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,494 +2923,494 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" t="s">
         <v>178</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>179</v>
-      </c>
-      <c r="E1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>194</v>
+        <v>1.94</v>
       </c>
       <c r="D2">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E2">
-        <v>185.9</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>1.28</v>
       </c>
       <c r="D3">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E3">
-        <v>119.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>0.84</v>
       </c>
       <c r="D4">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E4">
-        <v>75.900000000000006</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>76</v>
+        <v>0.76</v>
       </c>
       <c r="D5">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E5">
-        <v>67.900000000000006</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>0.46</v>
       </c>
       <c r="D6">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E6">
-        <v>37.9</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D7">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E7">
-        <v>20.9</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E8">
-        <v>16.899999999999999</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D9">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E9">
-        <v>15.9</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-7</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D10">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E10">
-        <v>-15.1</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-12</v>
+        <v>-0.12</v>
       </c>
       <c r="D11">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E11">
-        <v>-20.100000000000001</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-14</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D12">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E12">
-        <v>-22.1</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-21</v>
+        <v>-0.21</v>
       </c>
       <c r="D13">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E13">
-        <v>-29.1</v>
+        <v>-0.28999999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-21</v>
+        <v>-0.21</v>
       </c>
       <c r="D14">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E14">
-        <v>-29.1</v>
+        <v>-0.28999999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-31</v>
+        <v>-0.31</v>
       </c>
       <c r="D15">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E15">
-        <v>-39.1</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-34</v>
+        <v>-0.34</v>
       </c>
       <c r="D16">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E16">
-        <v>-42.1</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-51</v>
+        <v>-0.51</v>
       </c>
       <c r="D17">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E17">
-        <v>-59.1</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>-60</v>
+        <v>-0.6</v>
       </c>
       <c r="D18">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E18">
-        <v>-68.099999999999994</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-63</v>
+        <v>-0.63</v>
       </c>
       <c r="D19">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E19">
-        <v>-71.099999999999994</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>-64</v>
+        <v>-0.64</v>
       </c>
       <c r="D20">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E20">
-        <v>-72.099999999999994</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>-66</v>
+        <v>-0.66</v>
       </c>
       <c r="D21">
-        <v>8.1</v>
+        <v>0.08</v>
       </c>
       <c r="E21">
-        <v>-74.099999999999994</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="D22">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E22">
-        <v>65.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>0.59</v>
       </c>
       <c r="D23">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E23">
-        <v>61.7</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24">
-        <v>58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D24">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E24">
-        <v>60.7</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D25">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E25">
-        <v>30.7</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="D26">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E26">
-        <v>20.7</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D27">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E27">
-        <v>16.7</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D28">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E28">
-        <v>14.7</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D29">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E29">
-        <v>3.7</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -3419,508 +3419,508 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E30">
-        <v>2.7</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31">
-        <v>-4</v>
+        <v>-0.04</v>
       </c>
       <c r="D31">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E31">
-        <v>-1.3</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32">
-        <v>-11</v>
+        <v>-0.11</v>
       </c>
       <c r="D32">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E32">
-        <v>-8.3000000000000007</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33">
-        <v>-17</v>
+        <v>-0.17</v>
       </c>
       <c r="D33">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E33">
-        <v>-14.3</v>
+        <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34">
-        <v>-18</v>
+        <v>-0.18</v>
       </c>
       <c r="D34">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E34">
-        <v>-15.3</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35">
-        <v>-21</v>
+        <v>-0.21</v>
       </c>
       <c r="D35">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E35">
-        <v>-18.3</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36">
-        <v>-22</v>
+        <v>-0.22</v>
       </c>
       <c r="D36">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E36">
-        <v>-19.3</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37">
-        <v>-31</v>
+        <v>-0.31</v>
       </c>
       <c r="D37">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E37">
-        <v>-28.3</v>
+        <v>-0.28000000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38">
-        <v>-34</v>
+        <v>-0.34</v>
       </c>
       <c r="D38">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E38">
-        <v>-31.3</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39">
-        <v>-45</v>
+        <v>-0.45</v>
       </c>
       <c r="D39">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E39">
-        <v>-42.3</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40">
-        <v>-46</v>
+        <v>-0.46</v>
       </c>
       <c r="D40">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E40">
-        <v>-43.3</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41">
-        <v>-58</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="D41">
-        <v>-2.7</v>
+        <v>-0.03</v>
       </c>
       <c r="E41">
-        <v>-55.3</v>
+        <v>-0.55000000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>129</v>
+        <v>1.29</v>
       </c>
       <c r="D42">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E42">
-        <v>72.45</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43">
-        <v>117</v>
+        <v>1.17</v>
       </c>
       <c r="D43">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E43">
-        <v>60.45</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44">
-        <v>115</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D44">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E44">
-        <v>58.45</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45">
-        <v>104</v>
+        <v>1.04</v>
       </c>
       <c r="D45">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E45">
-        <v>47.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="D46">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E46">
-        <v>40.450000000000003</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47">
-        <v>92</v>
+        <v>0.92</v>
       </c>
       <c r="D47">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E47">
-        <v>35.450000000000003</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48">
-        <v>86</v>
+        <v>0.86</v>
       </c>
       <c r="D48">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E48">
-        <v>29.45</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
       <c r="C49">
-        <v>71</v>
+        <v>0.71</v>
       </c>
       <c r="D49">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E49">
-        <v>14.45</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="D50">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E50">
-        <v>7.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51">
-        <v>57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D51">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E51">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="D52">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E52">
-        <v>-9.5500000000000007</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="D53">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E53">
-        <v>-15.55</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="D54">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E54">
-        <v>-20.55</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="D55">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E55">
-        <v>-20.55</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="D56">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E56">
-        <v>-39.549999999999997</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D57">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E57">
-        <v>-45.55</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D58">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E58">
-        <v>-45.55</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D59">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E59">
-        <v>-55.55</v>
+        <v>-0.56000000000000005</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
@@ -3929,1727 +3929,1727 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E60">
-        <v>-56.55</v>
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61">
-        <v>-1</v>
+        <v>-0.01</v>
       </c>
       <c r="D61">
-        <v>56.55</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E61">
-        <v>-57.55</v>
+        <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
       <c r="C62">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="D62">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E62">
-        <v>85.86</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
       <c r="C63">
-        <v>29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D63">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E63">
-        <v>34.86</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
       <c r="C64">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="D64">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E64">
-        <v>32.86</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="D65">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E65">
-        <v>26.86</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="D66">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E66">
-        <v>24.86</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
       </c>
       <c r="C67">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="D67">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E67">
-        <v>22.86</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D68">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E68">
-        <v>20.86</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D69">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E69">
-        <v>17.86</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D70">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E70">
-        <v>10.86</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
         <v>9</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="D71">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E71">
-        <v>7.86</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
       </c>
       <c r="C72">
-        <v>-6</v>
+        <v>-0.06</v>
       </c>
       <c r="D72">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E72">
-        <v>-0.14000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
       </c>
       <c r="C73">
-        <v>-12</v>
+        <v>-0.12</v>
       </c>
       <c r="D73">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E73">
-        <v>-6.14</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
       </c>
       <c r="C74">
-        <v>-16</v>
+        <v>-0.16</v>
       </c>
       <c r="D74">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E74">
-        <v>-10.14</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
       </c>
       <c r="C75">
-        <v>-26</v>
+        <v>-0.26</v>
       </c>
       <c r="D75">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E75">
-        <v>-20.14</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
       <c r="C76">
-        <v>-27</v>
+        <v>-0.27</v>
       </c>
       <c r="D76">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E76">
-        <v>-21.14</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
       </c>
       <c r="C77">
-        <v>-37</v>
+        <v>-0.37</v>
       </c>
       <c r="D77">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E77">
-        <v>-31.14</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
       <c r="C78">
-        <v>-37</v>
+        <v>-0.37</v>
       </c>
       <c r="D78">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E78">
-        <v>-31.14</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
         <v>9</v>
       </c>
       <c r="C79">
-        <v>-38</v>
+        <v>-0.38</v>
       </c>
       <c r="D79">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E79">
-        <v>-32.14</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
       </c>
       <c r="C80">
-        <v>-38</v>
+        <v>-0.38</v>
       </c>
       <c r="D80">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E80">
-        <v>-32.14</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
       <c r="C81">
-        <v>-45</v>
+        <v>-0.45</v>
       </c>
       <c r="D81">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E81">
-        <v>-39.14</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
       </c>
       <c r="C82">
-        <v>-68</v>
+        <v>-0.68</v>
       </c>
       <c r="D82">
-        <v>-5.86</v>
+        <v>-0.06</v>
       </c>
       <c r="E82">
-        <v>-62.14</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83">
-        <v>119</v>
+        <v>1.19</v>
       </c>
       <c r="D83">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E83">
-        <v>104.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84">
-        <v>114</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D84">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E84">
-        <v>99.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85">
-        <v>96</v>
+        <v>0.96</v>
       </c>
       <c r="D85">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E85">
-        <v>81.95</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86">
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="D86">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E86">
-        <v>68.95</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D87">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E87">
-        <v>46.95</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88">
-        <v>58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D88">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E88">
-        <v>43.95</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="D89">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E89">
-        <v>9.9499999999999993</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90">
-        <v>14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D90">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E90">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D91">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E91">
-        <v>-7.05</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="D92">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E92">
-        <v>-8.0500000000000007</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="D93">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E93">
-        <v>-11.05</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94">
-        <v>-14</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D94">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E94">
-        <v>-28.05</v>
+        <v>-0.28000000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95">
-        <v>-23</v>
+        <v>-0.23</v>
       </c>
       <c r="D95">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E95">
-        <v>-37.049999999999997</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96">
-        <v>-26</v>
+        <v>-0.26</v>
       </c>
       <c r="D96">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E96">
-        <v>-40.049999999999997</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97">
-        <v>-29</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D97">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E97">
-        <v>-43.05</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="C98">
-        <v>-32</v>
+        <v>-0.32</v>
       </c>
       <c r="D98">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E98">
-        <v>-46.05</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99">
-        <v>-36</v>
+        <v>-0.36</v>
       </c>
       <c r="D99">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E99">
-        <v>-50.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100">
-        <v>-40</v>
+        <v>-0.4</v>
       </c>
       <c r="D100">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E100">
-        <v>-54.05</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101">
-        <v>-51</v>
+        <v>-0.51</v>
       </c>
       <c r="D101">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E101">
-        <v>-65.05</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
       <c r="C102">
-        <v>-53</v>
+        <v>-0.53</v>
       </c>
       <c r="D102">
-        <v>14.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E102">
-        <v>-67.05</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
       <c r="C103">
-        <v>386</v>
+        <v>3.86</v>
       </c>
       <c r="D103">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E103">
-        <v>331.65</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="D104">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E104">
-        <v>95.65</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105">
-        <v>139</v>
+        <v>1.39</v>
       </c>
       <c r="D105">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E105">
-        <v>84.65</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
       <c r="C106">
-        <v>126</v>
+        <v>1.26</v>
       </c>
       <c r="D106">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E106">
-        <v>71.650000000000006</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
       <c r="C107">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="D107">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E107">
-        <v>8.65</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
       <c r="C108">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D108">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E108">
-        <v>-5.35</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="D109">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E109">
-        <v>-9.35</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
       <c r="C110">
-        <v>39</v>
+        <v>0.39</v>
       </c>
       <c r="D110">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E110">
-        <v>-15.35</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D111">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E111">
-        <v>-26.35</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="D112">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E112">
-        <v>-27.35</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="D113">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E113">
-        <v>-34.35</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="D114">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E114">
-        <v>-37.35</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
       </c>
       <c r="C115">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="D115">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E115">
-        <v>-42.35</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D116">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E116">
-        <v>-43.35</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D117">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E117">
-        <v>-43.35</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D118">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E118">
-        <v>-45.35</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
       <c r="C119">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D119">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E119">
-        <v>-47.35</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120">
-        <v>-3</v>
+        <v>-0.03</v>
       </c>
       <c r="D120">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E120">
-        <v>-57.35</v>
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121">
-        <v>-7</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D121">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E121">
-        <v>-61.35</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122">
-        <v>-42</v>
+        <v>-0.42</v>
       </c>
       <c r="D122">
-        <v>54.35</v>
+        <v>0.54</v>
       </c>
       <c r="E122">
-        <v>-96.35</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
       <c r="C123">
-        <v>156</v>
+        <v>1.56</v>
       </c>
       <c r="D123">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E123">
-        <v>126.8</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124">
-        <v>118</v>
+        <v>1.18</v>
       </c>
       <c r="D124">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E124">
-        <v>88.8</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125">
-        <v>104</v>
+        <v>1.04</v>
       </c>
       <c r="D125">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E125">
-        <v>74.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="C126">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="D126">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E126">
-        <v>34.799999999999997</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D127">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E127">
-        <v>31.8</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128">
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="D128">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E128">
-        <v>31.8</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129">
-        <v>56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D129">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E129">
-        <v>26.8</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130">
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="D130">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E130">
-        <v>23.8</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="D131">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E131">
-        <v>13.8</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
       <c r="C132">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="D132">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E132">
-        <v>-9.1999999999999993</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D133">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E133">
-        <v>-13.2</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
       <c r="C134">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D134">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E134">
-        <v>-18.2</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D135">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E135">
-        <v>-19.2</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136">
-        <v>-1</v>
+        <v>-0.01</v>
       </c>
       <c r="D136">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E136">
-        <v>-30.2</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137">
-        <v>-9</v>
+        <v>-0.09</v>
       </c>
       <c r="D137">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E137">
-        <v>-38.200000000000003</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
       <c r="C138">
-        <v>-17</v>
+        <v>-0.17</v>
       </c>
       <c r="D138">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E138">
-        <v>-46.2</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
       <c r="C139">
-        <v>-31</v>
+        <v>-0.31</v>
       </c>
       <c r="D139">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E139">
-        <v>-60.2</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
       <c r="C140">
-        <v>-35</v>
+        <v>-0.35</v>
       </c>
       <c r="D140">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E140">
-        <v>-64.2</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
       </c>
       <c r="C141">
-        <v>-42</v>
+        <v>-0.42</v>
       </c>
       <c r="D141">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E141">
-        <v>-71.2</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="C142">
-        <v>-54</v>
+        <v>-0.54</v>
       </c>
       <c r="D142">
-        <v>29.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E142">
-        <v>-83.2</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
       </c>
       <c r="C143">
-        <v>2033</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="D143">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E143">
-        <v>1771.26</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
       </c>
       <c r="C144">
-        <v>1003</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="D144">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E144">
-        <v>741.26</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
       </c>
       <c r="C145">
-        <v>492</v>
+        <v>4.92</v>
       </c>
       <c r="D145">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E145">
-        <v>230.26</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
       </c>
       <c r="C146">
-        <v>354</v>
+        <v>3.54</v>
       </c>
       <c r="D146">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E146">
-        <v>92.26</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
       </c>
       <c r="C147">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E147">
-        <v>-61.74</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
       </c>
       <c r="C148">
-        <v>161</v>
+        <v>1.61</v>
       </c>
       <c r="D148">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E148">
-        <v>-100.74</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
       </c>
       <c r="C149">
-        <v>122</v>
+        <v>1.22</v>
       </c>
       <c r="D149">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E149">
-        <v>-139.74</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
       </c>
       <c r="C150">
-        <v>108</v>
+        <v>1.08</v>
       </c>
       <c r="D150">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E150">
-        <v>-153.74</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
       </c>
       <c r="C151">
-        <v>108</v>
+        <v>1.08</v>
       </c>
       <c r="D151">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E151">
-        <v>-153.74</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
       </c>
       <c r="C152">
-        <v>102</v>
+        <v>1.02</v>
       </c>
       <c r="D152">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E152">
-        <v>-159.74</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
       </c>
       <c r="C153">
-        <v>98</v>
+        <v>0.98</v>
       </c>
       <c r="D153">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E153">
-        <v>-163.74</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
       </c>
       <c r="C154">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="D154">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E154">
-        <v>-197.74</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
       </c>
       <c r="C155">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D155">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E155">
-        <v>-212.74</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
       </c>
       <c r="C156">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="D156">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E156">
-        <v>-216.74</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="D157">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E157">
-        <v>-234.74</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
       </c>
       <c r="C158">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="D158">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E158">
-        <v>-244.74</v>
+        <v>-2.4500000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
       </c>
       <c r="C159">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D159">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E159">
-        <v>-246.74</v>
+        <v>-2.4700000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
       </c>
       <c r="C160">
-        <v>-9</v>
+        <v>-0.09</v>
       </c>
       <c r="D160">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E160">
-        <v>-270.74</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
       </c>
       <c r="C161">
-        <v>-16</v>
+        <v>-0.16</v>
       </c>
       <c r="D161">
-        <v>261.74</v>
+        <v>2.62</v>
       </c>
       <c r="E161">
-        <v>-277.74</v>
+        <v>-2.78</v>
       </c>
     </row>
   </sheetData>

--- a/QueriedFinanceData.xlsx
+++ b/QueriedFinanceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Desktop\FinanceDataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9CD535-CAFE-4473-BA6B-61643EF0CFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B1FBE9-A7E3-491D-BB38-3739D07B5406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{805845B5-625B-46ED-9C30-2BDA6EED8189}"/>
+    <workbookView xWindow="7860" yWindow="2880" windowWidth="17055" windowHeight="15435" activeTab="3" xr2:uid="{805845B5-625B-46ED-9C30-2BDA6EED8189}"/>
   </bookViews>
   <sheets>
     <sheet name="avgPctIncrease" sheetId="1" r:id="rId1"/>
@@ -956,7 +956,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA91B388-B127-41C3-9129-8BA60680B22B}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="N162" sqref="N162"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C161" sqref="A1:C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,7 +2829,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C6" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,10 +2943,10 @@
         <v>1.94</v>
       </c>
       <c r="D2">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E2">
-        <v>1.86</v>
+        <v>1.859</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2960,10 +2960,10 @@
         <v>1.28</v>
       </c>
       <c r="D3">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E3">
-        <v>1.2</v>
+        <v>1.1990000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2977,10 +2977,10 @@
         <v>0.84</v>
       </c>
       <c r="D4">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E4">
-        <v>0.76</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2994,10 +2994,10 @@
         <v>0.76</v>
       </c>
       <c r="D5">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E5">
-        <v>0.68</v>
+        <v>0.67900000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3011,10 +3011,10 @@
         <v>0.46</v>
       </c>
       <c r="D6">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E6">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3028,10 +3028,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D7">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E7">
-        <v>0.21</v>
+        <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3045,10 +3045,10 @@
         <v>0.25</v>
       </c>
       <c r="D8">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E8">
-        <v>0.17</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3062,10 +3062,10 @@
         <v>0.24</v>
       </c>
       <c r="D9">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E9">
-        <v>0.16</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3079,10 +3079,10 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D10">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E10">
-        <v>-0.15</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3096,10 +3096,10 @@
         <v>-0.12</v>
       </c>
       <c r="D11">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E11">
-        <v>-0.2</v>
+        <v>-0.20100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3113,10 +3113,10 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="D12">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E12">
-        <v>-0.22</v>
+        <v>-0.221</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3130,10 +3130,10 @@
         <v>-0.21</v>
       </c>
       <c r="D13">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E13">
-        <v>-0.28999999999999998</v>
+        <v>-0.29099999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3147,10 +3147,10 @@
         <v>-0.21</v>
       </c>
       <c r="D14">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E14">
-        <v>-0.28999999999999998</v>
+        <v>-0.29099999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3164,10 +3164,10 @@
         <v>-0.31</v>
       </c>
       <c r="D15">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E15">
-        <v>-0.39</v>
+        <v>-0.39100000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3181,10 +3181,10 @@
         <v>-0.34</v>
       </c>
       <c r="D16">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E16">
-        <v>-0.42</v>
+        <v>-0.42099999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3198,10 +3198,10 @@
         <v>-0.51</v>
       </c>
       <c r="D17">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E17">
-        <v>-0.59</v>
+        <v>-0.59099999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3215,10 +3215,10 @@
         <v>-0.6</v>
       </c>
       <c r="D18">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E18">
-        <v>-0.68</v>
+        <v>-0.68100000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3232,10 +3232,10 @@
         <v>-0.63</v>
       </c>
       <c r="D19">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E19">
-        <v>-0.71</v>
+        <v>-0.71099999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3249,10 +3249,10 @@
         <v>-0.64</v>
       </c>
       <c r="D20">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E20">
-        <v>-0.72</v>
+        <v>-0.72099999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3266,10 +3266,10 @@
         <v>-0.66</v>
       </c>
       <c r="D21">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E21">
-        <v>-0.74</v>
+        <v>-0.74099999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,10 +3283,10 @@
         <v>0.63</v>
       </c>
       <c r="D22">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E22">
-        <v>0.66</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3300,10 +3300,10 @@
         <v>0.59</v>
       </c>
       <c r="D23">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E23">
-        <v>0.62</v>
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3317,10 +3317,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="D24">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E24">
-        <v>0.61</v>
+        <v>0.60699999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3334,10 +3334,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D25">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E25">
-        <v>0.31</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3351,10 +3351,10 @@
         <v>0.18</v>
       </c>
       <c r="D26">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E26">
-        <v>0.21</v>
+        <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3368,10 +3368,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D27">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E27">
-        <v>0.17</v>
+        <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3385,10 +3385,10 @@
         <v>0.12</v>
       </c>
       <c r="D28">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E28">
-        <v>0.15</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3402,10 +3402,10 @@
         <v>0.01</v>
       </c>
       <c r="D29">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E29">
-        <v>0.04</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3419,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3436,10 +3436,10 @@
         <v>-0.04</v>
       </c>
       <c r="D31">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E31">
-        <v>-0.01</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3453,10 +3453,10 @@
         <v>-0.11</v>
       </c>
       <c r="D32">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E32">
-        <v>-0.08</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,10 +3470,10 @@
         <v>-0.17</v>
       </c>
       <c r="D33">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E33">
-        <v>-0.14000000000000001</v>
+        <v>-0.14299999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,10 +3487,10 @@
         <v>-0.18</v>
       </c>
       <c r="D34">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E34">
-        <v>-0.15</v>
+        <v>-0.153</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3504,10 +3504,10 @@
         <v>-0.21</v>
       </c>
       <c r="D35">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E35">
-        <v>-0.18</v>
+        <v>-0.183</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3521,10 +3521,10 @@
         <v>-0.22</v>
       </c>
       <c r="D36">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E36">
-        <v>-0.19</v>
+        <v>-0.193</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3538,10 +3538,10 @@
         <v>-0.31</v>
       </c>
       <c r="D37">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E37">
-        <v>-0.28000000000000003</v>
+        <v>-0.28299999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3555,10 +3555,10 @@
         <v>-0.34</v>
       </c>
       <c r="D38">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E38">
-        <v>-0.31</v>
+        <v>-0.313</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3572,10 +3572,10 @@
         <v>-0.45</v>
       </c>
       <c r="D39">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E39">
-        <v>-0.42</v>
+        <v>-0.42299999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3589,10 +3589,10 @@
         <v>-0.46</v>
       </c>
       <c r="D40">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E40">
-        <v>-0.43</v>
+        <v>-0.433</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3606,10 +3606,10 @@
         <v>-0.57999999999999996</v>
       </c>
       <c r="D41">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E41">
-        <v>-0.55000000000000004</v>
+        <v>-0.55300000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3623,10 +3623,10 @@
         <v>1.29</v>
       </c>
       <c r="D42">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E42">
-        <v>0.72</v>
+        <v>0.72450000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3640,10 +3640,10 @@
         <v>1.17</v>
       </c>
       <c r="D43">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E43">
-        <v>0.6</v>
+        <v>0.60450000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3657,10 +3657,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D44">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E44">
-        <v>0.57999999999999996</v>
+        <v>0.58450000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3674,10 +3674,10 @@
         <v>1.04</v>
       </c>
       <c r="D45">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E45">
-        <v>0.47</v>
+        <v>0.47449999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3691,10 +3691,10 @@
         <v>0.97</v>
       </c>
       <c r="D46">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E46">
-        <v>0.4</v>
+        <v>0.40450000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3708,10 +3708,10 @@
         <v>0.92</v>
       </c>
       <c r="D47">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E47">
-        <v>0.35</v>
+        <v>0.35449999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3725,10 +3725,10 @@
         <v>0.86</v>
       </c>
       <c r="D48">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E48">
-        <v>0.28999999999999998</v>
+        <v>0.29449999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,10 +3742,10 @@
         <v>0.71</v>
       </c>
       <c r="D49">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E49">
-        <v>0.14000000000000001</v>
+        <v>0.14449999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,10 +3759,10 @@
         <v>0.64</v>
       </c>
       <c r="D50">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E50">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3776,10 +3776,10 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="D51">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3793,10 +3793,10 @@
         <v>0.47</v>
       </c>
       <c r="D52">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E52">
-        <v>-0.1</v>
+        <v>-9.5500000000000002E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3810,10 +3810,10 @@
         <v>0.41</v>
       </c>
       <c r="D53">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E53">
-        <v>-0.16</v>
+        <v>-0.1555</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3827,10 +3827,10 @@
         <v>0.36</v>
       </c>
       <c r="D54">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E54">
-        <v>-0.21</v>
+        <v>-0.20549999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3844,10 +3844,10 @@
         <v>0.36</v>
       </c>
       <c r="D55">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E55">
-        <v>-0.21</v>
+        <v>-0.20549999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3861,10 +3861,10 @@
         <v>0.17</v>
       </c>
       <c r="D56">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E56">
-        <v>-0.4</v>
+        <v>-0.39550000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,10 +3878,10 @@
         <v>0.11</v>
       </c>
       <c r="D57">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E57">
-        <v>-0.46</v>
+        <v>-0.45550000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3895,10 +3895,10 @@
         <v>0.11</v>
       </c>
       <c r="D58">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E58">
-        <v>-0.46</v>
+        <v>-0.45550000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3912,10 +3912,10 @@
         <v>0.01</v>
       </c>
       <c r="D59">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E59">
-        <v>-0.56000000000000005</v>
+        <v>-0.55549999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3929,10 +3929,10 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E60">
-        <v>-0.56999999999999995</v>
+        <v>-0.5655</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3946,10 +3946,10 @@
         <v>-0.01</v>
       </c>
       <c r="D61">
-        <v>0.56999999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="E61">
-        <v>-0.57999999999999996</v>
+        <v>-0.57550000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3963,10 +3963,10 @@
         <v>0.8</v>
       </c>
       <c r="D62">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E62">
-        <v>0.86</v>
+        <v>0.85860000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3980,10 +3980,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D63">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E63">
-        <v>0.35</v>
+        <v>0.34860000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3997,10 +3997,10 @@
         <v>0.27</v>
       </c>
       <c r="D64">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E64">
-        <v>0.33</v>
+        <v>0.3286</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4014,10 +4014,10 @@
         <v>0.21</v>
       </c>
       <c r="D65">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E65">
-        <v>0.27</v>
+        <v>0.26860000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4031,10 +4031,10 @@
         <v>0.19</v>
       </c>
       <c r="D66">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E66">
-        <v>0.25</v>
+        <v>0.24859999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4048,10 +4048,10 @@
         <v>0.17</v>
       </c>
       <c r="D67">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E67">
-        <v>0.23</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4065,10 +4065,10 @@
         <v>0.15</v>
       </c>
       <c r="D68">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E68">
-        <v>0.21</v>
+        <v>0.20860000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4082,10 +4082,10 @@
         <v>0.12</v>
       </c>
       <c r="D69">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E69">
-        <v>0.18</v>
+        <v>0.17860000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4099,10 +4099,10 @@
         <v>0.05</v>
       </c>
       <c r="D70">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E70">
-        <v>0.11</v>
+        <v>0.1086</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4116,10 +4116,10 @@
         <v>0.02</v>
       </c>
       <c r="D71">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E71">
-        <v>0.08</v>
+        <v>7.8600000000000003E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4133,10 +4133,10 @@
         <v>-0.06</v>
       </c>
       <c r="D72">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>-1.4E-3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4150,10 +4150,10 @@
         <v>-0.12</v>
       </c>
       <c r="D73">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E73">
-        <v>-0.06</v>
+        <v>-6.1400000000000003E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4167,10 +4167,10 @@
         <v>-0.16</v>
       </c>
       <c r="D74">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E74">
-        <v>-0.1</v>
+        <v>-0.1014</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4184,10 +4184,10 @@
         <v>-0.26</v>
       </c>
       <c r="D75">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E75">
-        <v>-0.2</v>
+        <v>-0.2014</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4201,10 +4201,10 @@
         <v>-0.27</v>
       </c>
       <c r="D76">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E76">
-        <v>-0.21</v>
+        <v>-0.2114</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4218,10 +4218,10 @@
         <v>-0.37</v>
       </c>
       <c r="D77">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E77">
-        <v>-0.31</v>
+        <v>-0.31140000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4235,10 +4235,10 @@
         <v>-0.37</v>
       </c>
       <c r="D78">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E78">
-        <v>-0.31</v>
+        <v>-0.31140000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4252,10 +4252,10 @@
         <v>-0.38</v>
       </c>
       <c r="D79">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E79">
-        <v>-0.32</v>
+        <v>-0.32140000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4269,10 +4269,10 @@
         <v>-0.38</v>
       </c>
       <c r="D80">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E80">
-        <v>-0.32</v>
+        <v>-0.32140000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4286,10 +4286,10 @@
         <v>-0.45</v>
       </c>
       <c r="D81">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E81">
-        <v>-0.39</v>
+        <v>-0.39140000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4303,10 +4303,10 @@
         <v>-0.68</v>
       </c>
       <c r="D82">
-        <v>-0.06</v>
+        <v>-5.8599999999999999E-2</v>
       </c>
       <c r="E82">
-        <v>-0.62</v>
+        <v>-0.62139999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4320,10 +4320,10 @@
         <v>1.19</v>
       </c>
       <c r="D83">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E83">
-        <v>1.05</v>
+        <v>1.0495000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4337,10 +4337,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="D84">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4354,10 +4354,10 @@
         <v>0.96</v>
       </c>
       <c r="D85">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E85">
-        <v>0.82</v>
+        <v>0.81950000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4371,10 +4371,10 @@
         <v>0.83</v>
       </c>
       <c r="D86">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E86">
-        <v>0.69</v>
+        <v>0.6895</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4388,10 +4388,10 @@
         <v>0.61</v>
       </c>
       <c r="D87">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E87">
-        <v>0.47</v>
+        <v>0.46949999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4405,10 +4405,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="D88">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E88">
-        <v>0.44</v>
+        <v>0.4395</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4422,10 +4422,10 @@
         <v>0.24</v>
       </c>
       <c r="D89">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E89">
-        <v>0.1</v>
+        <v>9.9500000000000005E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4439,10 +4439,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D90">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4456,10 +4456,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D91">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E91">
-        <v>-7.0000000000000007E-2</v>
+        <v>-7.0499999999999993E-2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4473,10 +4473,10 @@
         <v>0.06</v>
       </c>
       <c r="D92">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E92">
-        <v>-0.08</v>
+        <v>-8.0500000000000002E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4490,10 +4490,10 @@
         <v>0.03</v>
       </c>
       <c r="D93">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E93">
-        <v>-0.11</v>
+        <v>-0.1105</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4507,10 +4507,10 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="D94">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E94">
-        <v>-0.28000000000000003</v>
+        <v>-0.28050000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4524,10 +4524,10 @@
         <v>-0.23</v>
       </c>
       <c r="D95">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E95">
-        <v>-0.37</v>
+        <v>-0.3705</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4541,10 +4541,10 @@
         <v>-0.26</v>
       </c>
       <c r="D96">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E96">
-        <v>-0.4</v>
+        <v>-0.40050000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4558,10 +4558,10 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="D97">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E97">
-        <v>-0.43</v>
+        <v>-0.43049999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4575,10 +4575,10 @@
         <v>-0.32</v>
       </c>
       <c r="D98">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E98">
-        <v>-0.46</v>
+        <v>-0.46050000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4592,10 +4592,10 @@
         <v>-0.36</v>
       </c>
       <c r="D99">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E99">
-        <v>-0.5</v>
+        <v>-0.50049999999999994</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4609,10 +4609,10 @@
         <v>-0.4</v>
       </c>
       <c r="D100">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E100">
-        <v>-0.54</v>
+        <v>-0.54049999999999998</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4626,10 +4626,10 @@
         <v>-0.51</v>
       </c>
       <c r="D101">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E101">
-        <v>-0.65</v>
+        <v>-0.65049999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4643,10 +4643,10 @@
         <v>-0.53</v>
       </c>
       <c r="D102">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="E102">
-        <v>-0.67</v>
+        <v>-0.67049999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4660,10 +4660,10 @@
         <v>3.86</v>
       </c>
       <c r="D103">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E103">
-        <v>3.32</v>
+        <v>3.3165</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4677,10 +4677,10 @@
         <v>1.5</v>
       </c>
       <c r="D104">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E104">
-        <v>0.96</v>
+        <v>0.95650000000000002</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4694,10 +4694,10 @@
         <v>1.39</v>
       </c>
       <c r="D105">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E105">
-        <v>0.85</v>
+        <v>0.84650000000000003</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4711,10 +4711,10 @@
         <v>1.26</v>
       </c>
       <c r="D106">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E106">
-        <v>0.72</v>
+        <v>0.71650000000000003</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4728,10 +4728,10 @@
         <v>0.63</v>
       </c>
       <c r="D107">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E107">
-        <v>0.09</v>
+        <v>8.6499999999999994E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4745,10 +4745,10 @@
         <v>0.49</v>
       </c>
       <c r="D108">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E108">
-        <v>-0.05</v>
+        <v>-5.3499999999999999E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4762,10 +4762,10 @@
         <v>0.45</v>
       </c>
       <c r="D109">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E109">
-        <v>-0.09</v>
+        <v>-9.35E-2</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4779,10 +4779,10 @@
         <v>0.39</v>
       </c>
       <c r="D110">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E110">
-        <v>-0.15</v>
+        <v>-0.1535</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4796,10 +4796,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D111">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E111">
-        <v>-0.26</v>
+        <v>-0.26350000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4813,10 +4813,10 @@
         <v>0.27</v>
       </c>
       <c r="D112">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E112">
-        <v>-0.27</v>
+        <v>-0.27350000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4830,10 +4830,10 @@
         <v>0.2</v>
       </c>
       <c r="D113">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E113">
-        <v>-0.34</v>
+        <v>-0.34350000000000003</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4847,10 +4847,10 @@
         <v>0.17</v>
       </c>
       <c r="D114">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E114">
-        <v>-0.37</v>
+        <v>-0.3735</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4864,10 +4864,10 @@
         <v>0.12</v>
       </c>
       <c r="D115">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E115">
-        <v>-0.42</v>
+        <v>-0.42349999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4881,10 +4881,10 @@
         <v>0.11</v>
       </c>
       <c r="D116">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E116">
-        <v>-0.43</v>
+        <v>-0.4335</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4898,10 +4898,10 @@
         <v>0.11</v>
       </c>
       <c r="D117">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E117">
-        <v>-0.43</v>
+        <v>-0.4335</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4915,10 +4915,10 @@
         <v>0.09</v>
       </c>
       <c r="D118">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E118">
-        <v>-0.45</v>
+        <v>-0.45350000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4932,10 +4932,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D119">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E119">
-        <v>-0.47</v>
+        <v>-0.47349999999999998</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4949,10 +4949,10 @@
         <v>-0.03</v>
       </c>
       <c r="D120">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E120">
-        <v>-0.56999999999999995</v>
+        <v>-0.57350000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4966,10 +4966,10 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D121">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E121">
-        <v>-0.61</v>
+        <v>-0.61350000000000005</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4983,10 +4983,10 @@
         <v>-0.42</v>
       </c>
       <c r="D122">
-        <v>0.54</v>
+        <v>0.54349999999999998</v>
       </c>
       <c r="E122">
-        <v>-0.96</v>
+        <v>-0.96350000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5000,10 +5000,10 @@
         <v>1.56</v>
       </c>
       <c r="D123">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E123">
-        <v>1.27</v>
+        <v>1.268</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5017,10 +5017,10 @@
         <v>1.18</v>
       </c>
       <c r="D124">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E124">
-        <v>0.89</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5034,10 +5034,10 @@
         <v>1.04</v>
       </c>
       <c r="D125">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E125">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5051,10 +5051,10 @@
         <v>0.64</v>
       </c>
       <c r="D126">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E126">
-        <v>0.35</v>
+        <v>0.34799999999999998</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5068,10 +5068,10 @@
         <v>0.61</v>
       </c>
       <c r="D127">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E127">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5085,10 +5085,10 @@
         <v>0.61</v>
       </c>
       <c r="D128">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E128">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5102,10 +5102,10 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="D129">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E129">
-        <v>0.27</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -5119,10 +5119,10 @@
         <v>0.53</v>
       </c>
       <c r="D130">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E130">
-        <v>0.24</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -5136,10 +5136,10 @@
         <v>0.43</v>
       </c>
       <c r="D131">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E131">
-        <v>0.14000000000000001</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -5153,10 +5153,10 @@
         <v>0.2</v>
       </c>
       <c r="D132">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E132">
-        <v>-0.09</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -5170,10 +5170,10 @@
         <v>0.16</v>
       </c>
       <c r="D133">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E133">
-        <v>-0.13</v>
+        <v>-0.13200000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5187,10 +5187,10 @@
         <v>0.11</v>
       </c>
       <c r="D134">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E134">
-        <v>-0.18</v>
+        <v>-0.182</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5204,10 +5204,10 @@
         <v>0.1</v>
       </c>
       <c r="D135">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E135">
-        <v>-0.19</v>
+        <v>-0.192</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -5221,10 +5221,10 @@
         <v>-0.01</v>
       </c>
       <c r="D136">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E136">
-        <v>-0.3</v>
+        <v>-0.30199999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -5238,10 +5238,10 @@
         <v>-0.09</v>
       </c>
       <c r="D137">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E137">
-        <v>-0.38</v>
+        <v>-0.38200000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5255,10 +5255,10 @@
         <v>-0.17</v>
       </c>
       <c r="D138">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E138">
-        <v>-0.46</v>
+        <v>-0.46200000000000002</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -5272,10 +5272,10 @@
         <v>-0.31</v>
       </c>
       <c r="D139">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E139">
-        <v>-0.6</v>
+        <v>-0.60199999999999998</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -5289,10 +5289,10 @@
         <v>-0.35</v>
       </c>
       <c r="D140">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E140">
-        <v>-0.64</v>
+        <v>-0.64200000000000002</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5306,10 +5306,10 @@
         <v>-0.42</v>
       </c>
       <c r="D141">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E141">
-        <v>-0.71</v>
+        <v>-0.71199999999999997</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -5323,10 +5323,10 @@
         <v>-0.54</v>
       </c>
       <c r="D142">
-        <v>0.28999999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E142">
-        <v>-0.83</v>
+        <v>-0.83199999999999996</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5340,10 +5340,10 @@
         <v>20.329999999999998</v>
       </c>
       <c r="D143">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E143">
-        <v>17.71</v>
+        <v>17.712599999999998</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -5357,10 +5357,10 @@
         <v>10.029999999999999</v>
       </c>
       <c r="D144">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E144">
-        <v>7.41</v>
+        <v>7.4126000000000003</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -5374,10 +5374,10 @@
         <v>4.92</v>
       </c>
       <c r="D145">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E145">
-        <v>2.2999999999999998</v>
+        <v>2.3026</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5391,10 +5391,10 @@
         <v>3.54</v>
       </c>
       <c r="D146">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E146">
-        <v>0.92</v>
+        <v>0.92259999999999998</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -5408,10 +5408,10 @@
         <v>2</v>
       </c>
       <c r="D147">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E147">
-        <v>-0.62</v>
+        <v>-0.61739999999999995</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -5425,10 +5425,10 @@
         <v>1.61</v>
       </c>
       <c r="D148">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E148">
-        <v>-1.01</v>
+        <v>-1.0074000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -5442,10 +5442,10 @@
         <v>1.22</v>
       </c>
       <c r="D149">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E149">
-        <v>-1.4</v>
+        <v>-1.3974</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5459,10 +5459,10 @@
         <v>1.08</v>
       </c>
       <c r="D150">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E150">
-        <v>-1.54</v>
+        <v>-1.5374000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -5476,10 +5476,10 @@
         <v>1.08</v>
       </c>
       <c r="D151">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E151">
-        <v>-1.54</v>
+        <v>-1.5374000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -5493,10 +5493,10 @@
         <v>1.02</v>
       </c>
       <c r="D152">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E152">
-        <v>-1.6</v>
+        <v>-1.5973999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5510,10 +5510,10 @@
         <v>0.98</v>
       </c>
       <c r="D153">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E153">
-        <v>-1.64</v>
+        <v>-1.6374</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5527,10 +5527,10 @@
         <v>0.64</v>
       </c>
       <c r="D154">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E154">
-        <v>-1.98</v>
+        <v>-1.9774</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5544,10 +5544,10 @@
         <v>0.49</v>
       </c>
       <c r="D155">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E155">
-        <v>-2.13</v>
+        <v>-2.1274000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -5561,10 +5561,10 @@
         <v>0.45</v>
       </c>
       <c r="D156">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E156">
-        <v>-2.17</v>
+        <v>-2.1674000000000002</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5578,10 +5578,10 @@
         <v>0.27</v>
       </c>
       <c r="D157">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E157">
-        <v>-2.35</v>
+        <v>-2.3473999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5595,10 +5595,10 @@
         <v>0.17</v>
       </c>
       <c r="D158">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E158">
-        <v>-2.4500000000000002</v>
+        <v>-2.4474</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5612,10 +5612,10 @@
         <v>0.15</v>
       </c>
       <c r="D159">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E159">
-        <v>-2.4700000000000002</v>
+        <v>-2.4674</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5629,10 +5629,10 @@
         <v>-0.09</v>
       </c>
       <c r="D160">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E160">
-        <v>-2.71</v>
+        <v>-2.7073999999999998</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5646,10 +5646,10 @@
         <v>-0.16</v>
       </c>
       <c r="D161">
-        <v>2.62</v>
+        <v>2.6173999999999999</v>
       </c>
       <c r="E161">
-        <v>-2.78</v>
+        <v>-2.7774000000000001</v>
       </c>
     </row>
   </sheetData>
